--- a/Code/Data/DAC/combined_solver_comparison_vs_ref.xlsx
+++ b/Code/Data/DAC/combined_solver_comparison_vs_ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/toon_vandegenachte_student_kuleuven_be/Documents/2de master/Thesis/Thesis/Code/Data/DAC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD300D0FFC8C1FE934F3088B35299F77A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FA21D3D-E9A3-4512-A998-00B3B8B97BC4}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_2B59D2BFD300D0FFC8C1FE934F3088B35299F77A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B59ABF3-10CF-445B-96F4-D1B23BC380AB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,6 +128,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,10 +421,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
